--- a/analysis/gifference_data_engagement.xlsx
+++ b/analysis/gifference_data_engagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoamabili/Library/Mobile Documents/com~apple~CloudDocs/GIFferences/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoamabili/Library/Mobile Documents/com~apple~CloudDocs/Research projects/GIFferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B01F5-28F2-5246-A51F-02AF9EE75052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B3F29-1F5B-ED43-A7F5-84F0EE1B2C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" xr2:uid="{2FE08485-BB53-A442-A6B6-8507BA0B64BA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="15">
   <si>
     <t>vl_level</t>
   </si>
@@ -46,12 +46,45 @@
   <si>
     <t>cb</t>
   </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +109,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,15 +471,18 @@
   <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="2.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="28" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="3"/>
+    <col min="29" max="29" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -552,49 +594,49 @@
         <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S2" s="2">
         <v>6</v>
@@ -603,164 +645,164 @@
         <v>4</v>
       </c>
       <c r="U2" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2">
         <v>6</v>
       </c>
       <c r="L3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2">
         <v>7</v>
       </c>
       <c r="O3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2">
         <v>2</v>
       </c>
       <c r="Q3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
         <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2">
         <v>5</v>
@@ -769,126 +811,126 @@
         <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4" s="2">
         <v>6</v>
       </c>
       <c r="S4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4" s="2">
         <v>4</v>
       </c>
       <c r="U4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W4" s="2">
         <v>4</v>
       </c>
       <c r="X4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB4" s="2">
         <v>2</v>
       </c>
-      <c r="AC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
+      <c r="AC4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R5" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S5" s="2">
         <v>5</v>
@@ -897,40 +939,40 @@
         <v>6</v>
       </c>
       <c r="U5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -938,37 +980,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -977,156 +1019,156 @@
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="2">
         <v>6</v>
       </c>
       <c r="S6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U6" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V6" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="2">
         <v>6</v>
       </c>
       <c r="Z6" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
       </c>
       <c r="M7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" s="2">
         <v>3</v>
       </c>
       <c r="W7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="2">
         <v>2</v>
       </c>
-      <c r="AC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
+      <c r="AC7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -1134,19 +1176,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
@@ -1158,73 +1200,73 @@
         <v>7</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <v>7</v>
       </c>
       <c r="O8" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
       </c>
       <c r="S8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="2">
         <v>7</v>
       </c>
       <c r="AA8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -1232,147 +1274,147 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X9" s="2">
         <v>6</v>
       </c>
       <c r="Y9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>6</v>
@@ -1384,60 +1426,60 @@
         <v>6</v>
       </c>
       <c r="T10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U10" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X10" s="2">
         <v>6</v>
       </c>
       <c r="Y10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z10" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
@@ -1446,79 +1488,79 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>6</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R11" s="2">
         <v>6</v>
       </c>
       <c r="S11" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U11" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V11" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W11" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X11" s="2">
         <v>6</v>
       </c>
       <c r="Y11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -1529,70 +1571,70 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S12" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="2">
         <v>6</v>
@@ -1601,66 +1643,66 @@
         <v>5</v>
       </c>
       <c r="AA12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -1669,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>7</v>
@@ -1678,60 +1720,60 @@
         <v>6</v>
       </c>
       <c r="T13" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V13" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="2">
         <v>1</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>1</v>
+      <c r="AC13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
         <v>7</v>
@@ -1743,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="I14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" s="2">
         <v>5</v>
@@ -1758,28 +1800,28 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <v>2</v>
       </c>
       <c r="Q14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V14" s="2">
         <v>6</v>
@@ -1788,244 +1830,244 @@
         <v>7</v>
       </c>
       <c r="X14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="2">
         <v>5</v>
       </c>
       <c r="AA14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U15" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="2">
         <v>6</v>
       </c>
       <c r="O16" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S16" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T16" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W16" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="2">
         <v>7</v>
       </c>
       <c r="Z16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="2">
         <v>6</v>
       </c>
       <c r="AB16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
         <v>7</v>
@@ -2037,13 +2079,13 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2">
         <v>5</v>
@@ -2052,28 +2094,28 @@
         <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17" s="2">
         <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R17" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V17" s="2">
         <v>6</v>
@@ -2082,31 +2124,31 @@
         <v>7</v>
       </c>
       <c r="X17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z17" s="2">
         <v>5</v>
       </c>
       <c r="AA17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -2114,132 +2156,132 @@
         <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18" s="2">
         <v>6</v>
       </c>
       <c r="M18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <v>6</v>
       </c>
       <c r="O18" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W18" s="2">
         <v>7</v>
       </c>
       <c r="X18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="2">
         <v>1</v>
       </c>
-      <c r="AC18" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>0</v>
+      <c r="AC18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L19" s="2">
         <v>4</v>
@@ -2248,141 +2290,141 @@
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T19" s="2">
         <v>3</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y20" s="2">
         <v>7</v>
       </c>
       <c r="Z20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA20" s="2">
         <v>6</v>
@@ -2390,46 +2432,46 @@
       <c r="AB20" s="2">
         <v>2</v>
       </c>
-      <c r="AC20" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>0</v>
+      <c r="AC20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
@@ -2438,75 +2480,75 @@
         <v>4</v>
       </c>
       <c r="L21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" s="2">
         <v>2</v>
       </c>
       <c r="Q21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U21" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -2515,88 +2557,88 @@
         <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L22" s="2">
         <v>4</v>
       </c>
       <c r="M22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>5</v>
       </c>
       <c r="O22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P22" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R22" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U22" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" s="2">
         <v>6</v>
       </c>
       <c r="X22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
@@ -2604,138 +2646,138 @@
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
         <v>5</v>
       </c>
       <c r="M23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S23" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T23" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U23" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V23" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W23" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X23" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB23" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
         <v>4</v>
       </c>
       <c r="J24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="2">
         <v>5</v>
@@ -2744,69 +2786,69 @@
         <v>2</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="2">
         <v>4</v>
       </c>
       <c r="R24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S24" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T24" s="2">
         <v>4</v>
       </c>
       <c r="U24" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V24" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y24" s="2">
         <v>7</v>
       </c>
       <c r="Z24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA24" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
@@ -2818,16 +2860,16 @@
         <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
         <v>5</v>
       </c>
       <c r="J25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" s="2">
         <v>5</v>
@@ -2836,31 +2878,31 @@
         <v>2</v>
       </c>
       <c r="N25" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U25" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W25" s="2">
         <v>6</v>
@@ -2869,54 +2911,54 @@
         <v>6</v>
       </c>
       <c r="Y25" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>6</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2">
         <v>5</v>
@@ -2925,126 +2967,126 @@
         <v>2</v>
       </c>
       <c r="K26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" s="2">
         <v>2</v>
       </c>
       <c r="N26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O26" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P26" s="2">
         <v>2</v>
       </c>
       <c r="Q26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R26" s="2">
         <v>6</v>
       </c>
       <c r="S26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T26" s="2">
         <v>4</v>
       </c>
       <c r="U26" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26" s="2">
         <v>4</v>
       </c>
       <c r="X26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB26" s="2">
         <v>2</v>
       </c>
-      <c r="AC26" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>0</v>
+      <c r="AC26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R27" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S27" s="2">
         <v>6</v>
@@ -3053,40 +3095,40 @@
         <v>4</v>
       </c>
       <c r="U27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W27" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB27" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
@@ -3094,79 +3136,79 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O28" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S28" s="2">
         <v>6</v>
       </c>
       <c r="T28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U28" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V28" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W28" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="2">
         <v>4</v>
@@ -3174,34 +3216,34 @@
       <c r="AB28" s="2">
         <v>2</v>
       </c>
-      <c r="AC28" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>0</v>
+      <c r="AC28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
         <v>6</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
         <v>6</v>
@@ -3210,79 +3252,79 @@
         <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" s="2">
         <v>6</v>
       </c>
       <c r="O29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S29" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U29" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB29" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
@@ -3293,165 +3335,165 @@
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R30" s="2">
         <v>7</v>
       </c>
       <c r="S30" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T30" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V30" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W30" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X30" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I31" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
         <v>7</v>
       </c>
       <c r="L31" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M31" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>6</v>
       </c>
       <c r="R31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T31" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U31" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V31" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W31" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X31" s="2">
         <v>6</v>
@@ -3460,48 +3502,48 @@
         <v>6</v>
       </c>
       <c r="Z31" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA31" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB31" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2">
         <v>7</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H32" s="2">
         <v>7</v>
@@ -3519,43 +3561,43 @@
         <v>7</v>
       </c>
       <c r="M32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2">
         <v>7</v>
       </c>
       <c r="O32" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R32" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U32" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V32" s="2">
         <v>7</v>
       </c>
       <c r="W32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y32" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z32" s="2">
         <v>5</v>
@@ -3564,63 +3606,63 @@
         <v>5</v>
       </c>
       <c r="AB32" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I33" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K33" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L33" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
       </c>
       <c r="N33" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
@@ -3629,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R33" s="2">
         <v>7</v>
@@ -3641,138 +3683,138 @@
         <v>7</v>
       </c>
       <c r="U33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V33" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W33" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X33" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y33" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z33" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="2">
         <v>1</v>
       </c>
-      <c r="AC33" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>0</v>
+      <c r="AC33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
         <v>3</v>
       </c>
       <c r="F34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="2">
         <v>6</v>
       </c>
       <c r="I34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K34" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L34" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34" s="2">
         <v>2</v>
       </c>
       <c r="Q34" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S34" s="2">
         <v>7</v>
       </c>
       <c r="T34" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W34" s="2">
         <v>5</v>
       </c>
       <c r="X34" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y34" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z34" s="2">
         <v>5</v>
       </c>
       <c r="AA34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB34" s="2">
         <v>4</v>
       </c>
-      <c r="AC34" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>0</v>
+      <c r="AC34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
@@ -3780,203 +3822,203 @@
         <v>7</v>
       </c>
       <c r="B35" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2">
         <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
       </c>
       <c r="H35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O35" s="2">
         <v>2</v>
       </c>
       <c r="P35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="2">
         <v>5</v>
       </c>
       <c r="R35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S35" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T35" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U35" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W35" s="2">
         <v>6</v>
       </c>
       <c r="X35" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y35" s="2">
         <v>6</v>
       </c>
       <c r="Z35" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA35" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB35" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
         <v>7</v>
       </c>
       <c r="D36" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
         <v>3</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N36" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S36" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T36" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V36" s="2">
         <v>3</v>
       </c>
       <c r="W36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X36" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB36" s="2">
         <v>2</v>
       </c>
-      <c r="AC36" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>0</v>
+      <c r="AC36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
@@ -3985,34 +4027,34 @@
         <v>5</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" s="2">
         <v>6</v>
       </c>
       <c r="L37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O37" s="2">
         <v>1</v>
@@ -4021,16 +4063,16 @@
         <v>1</v>
       </c>
       <c r="Q37" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R37" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T37" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U37" s="2">
         <v>6</v>
@@ -4042,31 +4084,31 @@
         <v>6</v>
       </c>
       <c r="X37" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z37" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA37" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -4154,17 +4196,17 @@
       <c r="AB38" s="2">
         <v>1</v>
       </c>
-      <c r="AC38" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>0</v>
+      <c r="AC38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -4178,91 +4220,91 @@
         <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2">
         <v>2</v>
       </c>
       <c r="K39" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" s="2">
         <v>5</v>
       </c>
       <c r="O39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2">
         <v>2</v>
       </c>
       <c r="Q39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S39" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T39" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U39" s="2">
         <v>6</v>
       </c>
       <c r="V39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X39" s="2">
         <v>6</v>
       </c>
       <c r="Y39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB39" s="2">
         <v>2</v>
       </c>
-      <c r="AC39" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>0</v>
+      <c r="AC39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -4273,31 +4315,31 @@
         <v>2</v>
       </c>
       <c r="C40" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" s="2">
         <v>5</v>
@@ -4309,58 +4351,58 @@
         <v>7</v>
       </c>
       <c r="O40" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R40" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S40" s="2">
         <v>6</v>
       </c>
       <c r="T40" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y40" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB40" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
@@ -4368,19 +4410,19 @@
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -4389,55 +4431,55 @@
         <v>6</v>
       </c>
       <c r="I41" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L41" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O41" s="2">
         <v>2</v>
       </c>
       <c r="P41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R41" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S41" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T41" s="2">
         <v>4</v>
       </c>
       <c r="U41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W41" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X41" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y41" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z41" s="2">
         <v>5</v>
@@ -4448,17 +4490,17 @@
       <c r="AB41" s="2">
         <v>2</v>
       </c>
-      <c r="AC41" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>0</v>
+      <c r="AC41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -4466,40 +4508,40 @@
         <v>6</v>
       </c>
       <c r="B42" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G42" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
       <c r="K42" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L42" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>7</v>
@@ -4508,34 +4550,34 @@
         <v>2</v>
       </c>
       <c r="P42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U42" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X42" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z42" s="2">
         <v>7</v>
@@ -4544,63 +4586,63 @@
         <v>7</v>
       </c>
       <c r="AB42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I43" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L43" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
       </c>
       <c r="N43" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2">
         <v>1</v>
@@ -4609,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R43" s="2">
         <v>7</v>
@@ -4621,40 +4663,40 @@
         <v>4</v>
       </c>
       <c r="U43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W43" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X43" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y43" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z43" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA43" s="2">
         <v>6</v>
       </c>
       <c r="AB43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -4662,22 +4704,22 @@
         <v>6</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="2">
         <v>6</v>
@@ -4686,16 +4728,16 @@
         <v>6</v>
       </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L44" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M44" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" s="2">
         <v>5</v>
@@ -4704,99 +4746,99 @@
         <v>2</v>
       </c>
       <c r="P44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" s="2">
         <v>5</v>
       </c>
       <c r="S44" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T44" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U44" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V44" s="2">
         <v>5</v>
       </c>
       <c r="W44" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X44" s="2">
         <v>6</v>
       </c>
       <c r="Y44" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z44" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA44" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB44" s="2">
         <v>2</v>
       </c>
-      <c r="AC44" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="3">
-        <v>0</v>
+      <c r="AC44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2">
         <v>5</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I45" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L45" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O45" s="2">
         <v>2</v>
@@ -4814,93 +4856,93 @@
         <v>5</v>
       </c>
       <c r="T45" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" s="2">
         <v>6</v>
       </c>
       <c r="W45" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X45" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y45" s="2">
         <v>5</v>
       </c>
       <c r="Z45" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA45" s="2">
         <v>7</v>
       </c>
       <c r="AB45" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2">
         <v>6</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I46" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J46" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L46" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O46" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="2">
         <v>6</v>
@@ -4909,28 +4951,28 @@
         <v>7</v>
       </c>
       <c r="S46" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T46" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U46" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W46" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X46" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y46" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z46" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA46" s="2">
         <v>6</v>
@@ -4938,28 +4980,28 @@
       <c r="AB46" s="2">
         <v>2</v>
       </c>
-      <c r="AC46" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="3">
-        <v>0</v>
+      <c r="AC46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>
@@ -4971,31 +5013,31 @@
         <v>6</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I47" s="2">
         <v>6</v>
       </c>
       <c r="J47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L47" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P47" s="2">
         <v>2</v>
@@ -5004,10 +5046,10 @@
         <v>5</v>
       </c>
       <c r="R47" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S47" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T47" s="2">
         <v>6</v>
@@ -5016,37 +5058,37 @@
         <v>5</v>
       </c>
       <c r="V47" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W47" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X47" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z47" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA47" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
@@ -5054,147 +5096,147 @@
         <v>6</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2">
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L48" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M48" s="2">
         <v>2</v>
       </c>
       <c r="N48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2">
         <v>6</v>
       </c>
       <c r="R48" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T48" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U48" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V48" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W48" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X48" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y48" s="2">
         <v>4</v>
       </c>
       <c r="Z48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA48" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB48" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC48" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G49" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
         <v>6</v>
       </c>
       <c r="I49" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L49" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O49" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="2">
         <v>6</v>
@@ -5203,46 +5245,46 @@
         <v>7</v>
       </c>
       <c r="S49" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T49" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U49" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V49" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W49" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X49" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y49" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z49" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA49" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB49" s="2">
         <v>2</v>
       </c>
-      <c r="AC49" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="3">
-        <v>0</v>
+      <c r="AC49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
@@ -6654,6 +6696,10 @@
       <c r="AD93" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF97">
+    <sortCondition ref="AC1:AC97"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>